--- a/admin/upload/defenceeval_template.xlsx
+++ b/admin/upload/defenceeval_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="8430"/>
@@ -52,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -808,6 +808,79 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -816,10 +889,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007-2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFF00"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1097,20 +1170,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="49.25" customWidth="1"/>
     <col min="4" max="4" width="69.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1209,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1156,7 +1229,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1171,7 +1244,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1182,7 +1255,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1193,7 +1266,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1204,7 +1277,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1215,7 +1288,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1226,7 +1299,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1237,7 +1310,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1248,7 +1321,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1259,7 +1332,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1270,7 +1343,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1281,7 +1354,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1292,7 +1365,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1303,7 +1376,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1314,7 +1387,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1325,7 +1398,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1336,7 +1409,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1347,7 +1420,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1358,7 +1431,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1369,7 +1442,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1380,7 +1453,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1391,7 +1464,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1402,7 +1475,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1413,7 +1486,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1424,7 +1497,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1435,7 +1508,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1446,7 +1519,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1457,7 +1530,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1468,7 +1541,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1479,7 +1552,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1490,7 +1563,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1501,7 +1574,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1512,7 +1585,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1523,7 +1596,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1534,7 +1607,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1545,7 +1618,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1556,7 +1629,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1567,7 +1640,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1578,7 +1651,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1589,7 +1662,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1600,7 +1673,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1611,7 +1684,7 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1622,7 +1695,7 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1633,7 +1706,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1644,7 +1717,7 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1655,7 +1728,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1666,7 +1739,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1677,7 +1750,7 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -1688,7 +1761,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -1699,7 +1772,7 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -1710,7 +1783,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -1721,7 +1794,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1732,7 +1805,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -1743,7 +1816,7 @@
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -1754,7 +1827,7 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -1765,7 +1838,7 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -1776,7 +1849,7 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -1787,7 +1860,7 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -1798,7 +1871,7 @@
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -1809,7 +1882,7 @@
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -1820,7 +1893,7 @@
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -1831,7 +1904,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -1842,7 +1915,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -1853,7 +1926,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -1864,7 +1937,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -1875,7 +1948,7 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -1886,7 +1959,7 @@
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -1897,7 +1970,7 @@
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -1908,7 +1981,7 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -1919,7 +1992,7 @@
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -1930,7 +2003,7 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -1941,7 +2014,7 @@
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -1952,7 +2025,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -1963,7 +2036,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -1974,7 +2047,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -1985,7 +2058,7 @@
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -1996,7 +2069,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -2007,7 +2080,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -2018,7 +2091,7 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -2029,7 +2102,7 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2040,7 +2113,7 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -2051,7 +2124,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -2062,7 +2135,7 @@
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2073,7 +2146,7 @@
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -2084,7 +2157,7 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -2095,7 +2168,7 @@
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -2106,7 +2179,7 @@
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -2117,7 +2190,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -2128,7 +2201,7 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2139,7 +2212,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2150,7 +2223,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2161,7 +2234,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -2172,7 +2245,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -2183,7 +2256,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -2194,7 +2267,7 @@
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -2205,7 +2278,7 @@
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -2216,7 +2289,7 @@
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -2227,7 +2300,7 @@
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -2238,7 +2311,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -2249,7 +2322,7 @@
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -2260,7 +2333,7 @@
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -2271,7 +2344,7 @@
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -2282,7 +2355,7 @@
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -2293,7 +2366,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -2304,7 +2377,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -2315,7 +2388,7 @@
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -2326,7 +2399,7 @@
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -2337,7 +2410,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -2348,7 +2421,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -2359,7 +2432,7 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -2370,7 +2443,7 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -2381,7 +2454,7 @@
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -2392,7 +2465,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -2403,7 +2476,7 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -2414,7 +2487,7 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2425,7 +2498,7 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -2436,7 +2509,7 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -2447,7 +2520,7 @@
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -2458,7 +2531,7 @@
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -2469,7 +2542,7 @@
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -2480,7 +2553,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -2491,7 +2564,7 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -2502,7 +2575,7 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -2513,7 +2586,7 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
@@ -2524,7 +2597,7 @@
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -2535,7 +2608,7 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -2546,7 +2619,7 @@
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -2557,7 +2630,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
@@ -2568,7 +2641,7 @@
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
@@ -2579,7 +2652,7 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -2590,7 +2663,7 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
@@ -2601,7 +2674,7 @@
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -2612,7 +2685,7 @@
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
@@ -2623,7 +2696,7 @@
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -2634,7 +2707,7 @@
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -2645,7 +2718,7 @@
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -2656,7 +2729,7 @@
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -2667,7 +2740,7 @@
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -2678,7 +2751,7 @@
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -2689,7 +2762,7 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -2700,7 +2773,7 @@
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -2711,7 +2784,7 @@
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -2722,7 +2795,7 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -2733,7 +2806,7 @@
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -2744,7 +2817,7 @@
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -2755,7 +2828,7 @@
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
@@ -2767,7 +2840,7 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="成绩取值无效" error="成绩必须是优秀、良好、及格、不及格中的一个。" sqref="E2:E1048576">
-      <formula1>"优秀,良好,及格,不及格"</formula1>
+      <formula1>"优秀,良好,一般,较差"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="成绩取值无效" error="成绩必须是优秀、良好、及格、不及格中的一个。" sqref="E1"/>
   </dataValidations>
